--- a/Session 6/SplittedAccuracy Data.xlsx
+++ b/Session 6/SplittedAccuracy Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Documents\University\S3\Data Science\MyGit\Session 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{056B5660-A621-4840-A2A5-BAA318D586EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57F41E2-DAFA-4C1E-BDAF-E50F03441956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4DC58F7B-97D5-48BF-8A5B-1080894B0238}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
   <si>
     <t>Gamma</t>
   </si>
@@ -78,6 +78,12 @@
   </si>
   <si>
     <t>4.2</t>
+  </si>
+  <si>
+    <t>Besides 100% by 2.1 Gamma with 4.1 C and 2.0 Gamma and 4.2 C,</t>
+  </si>
+  <si>
+    <t>the highest we can get is 0.7 Gamma with .7 C</t>
   </si>
 </sst>
 </file>
@@ -119,7 +125,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -128,6 +134,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -444,15 +456,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB06CFB3-62E1-400D-851F-252E1F68DE8C}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -463,7 +475,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -474,7 +486,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -485,7 +497,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -496,7 +508,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -507,7 +519,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -518,7 +530,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -529,7 +541,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -540,7 +552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
@@ -551,7 +563,31 @@
         <v>1</v>
       </c>
     </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A12:E12"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
